--- a/biology/Botanique/Nomadic_Museum/Nomadic_Museum.xlsx
+++ b/biology/Botanique/Nomadic_Museum/Nomadic_Museum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Nomadic Museum (« musée nomade ») est une structure temporaire utilisée pour héberger Ashes and Snow (« Cendres et Neige »), l’exposition de photographies et de films de Gregory Colbert. Le premier musée nomade a été lancé par l’exposition Ashes and Snow de New York en mars 2005. Ce musée a ensuite voyagé à Santa Monica, Californie, en 2006, à Tokyo en 2007 et à Mexico en 2008.
 L'idée originale d'un musée nomade durable a germé en 1999 dans l’esprit de Grégory Colbert. Il a imaginé une structure facile à monter dans chaque port d’attache qui servirait d’environnement transitoire à ses œuvres dans leur périple autour du monde. Le premier lieu d’exposition publique de Ashes and Snow en 2002, le bâtiment de l’Arsenal de Venise, a inspiré le concept architectural du Nomadic Museum.
